--- a/tests/sample_tests_data/catalog/hypo_catalog.xlsx
+++ b/tests/sample_tests_data/catalog/hypo_catalog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SEML\GITHUB DEPLOY\auto-moment-magnitude-calc\catalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\LQTMomentMag\tests\sample_tests_data\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4A6E6-2651-4D77-BAC9-7572C56F79E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF93832-4712-42F1-86AB-B1170AA140C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,48 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>UTM_X</t>
-  </si>
-  <si>
-    <t>UTM_Y</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Elev</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>RMS_error</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>utm_x</t>
+  </si>
+  <si>
+    <t>utm_y</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>t_0</t>
   </si>
 </sst>
 </file>
@@ -469,7 +466,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +511,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -558,9 +553,7 @@
       <c r="M2" s="5">
         <v>35.909999800000001</v>
       </c>
-      <c r="N2" s="5">
-        <v>1.10127E-2</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -603,9 +596,7 @@
       <c r="M3" s="5">
         <v>28.420000099999999</v>
       </c>
-      <c r="N3" s="5">
-        <v>1.63663E-2</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -648,9 +639,7 @@
       <c r="M4" s="5">
         <v>6.7800001999999999</v>
       </c>
-      <c r="N4" s="5">
-        <v>1.56898E-2</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -693,9 +682,7 @@
       <c r="M5" s="5">
         <v>4.0500002000000004</v>
       </c>
-      <c r="N5" s="5">
-        <v>6.00411E-2</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -738,9 +725,7 @@
       <c r="M6" s="5">
         <v>12.3800001</v>
       </c>
-      <c r="N6" s="5">
-        <v>1.9047999999999999E-2</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/tests/sample_tests_data/catalog/hypo_catalog.xlsx
+++ b/tests/sample_tests_data/catalog/hypo_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\LQTMomentMag\tests\sample_tests_data\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF93832-4712-42F1-86AB-B1170AA140C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3DAF8-4820-4181-B4E1-A5899E16CCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>t_0</t>
+  </si>
+  <si>
+    <t>remarks</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,9 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
